--- a/SemanticsInference_Results.xlsx
+++ b/SemanticsInference_Results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28020"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA5F2EE2-0E0D-4ED5-8390-4545C9D7EC8A}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{332121DC-D055-4212-B9BB-8DE6F0CA94BF}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1167,7 +1167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E618F18-70EA-4B03-A7F6-DA3B9A811B97}">
   <dimension ref="A2:K273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1324,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>17</v>
@@ -1587,8 +1589,8 @@
       <c r="F16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
@@ -1758,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
@@ -1816,7 +1818,7 @@
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -2152,7 +2154,7 @@
         <v>19</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
@@ -2181,7 +2183,7 @@
         <v>19</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>19</v>
@@ -2378,7 +2380,7 @@
         <v>14</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2407,7 +2409,7 @@
         <v>14</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2427,16 +2429,16 @@
         <v>11</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2545,11 +2547,11 @@
       <c r="F63" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>14</v>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>17</v>
@@ -2891,7 +2893,7 @@
         <v>26</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>14</v>
@@ -2900,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3049,8 +3051,8 @@
       <c r="H85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>13</v>
+      <c r="I85" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3263,7 +3265,7 @@
       <c r="B93" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -3292,7 +3294,7 @@
       <c r="B94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -3359,17 +3361,17 @@
       <c r="E96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>17</v>
+      <c r="F96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3504,14 +3506,14 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>14</v>
+      <c r="F101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>14</v>
@@ -3910,17 +3912,17 @@
       <c r="E115" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>26</v>
+      <c r="F115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4006,8 +4008,8 @@
       <c r="H118" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="2" t="s">
-        <v>26</v>
+      <c r="I118" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4209,8 +4211,8 @@
       <c r="H125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>17</v>
+      <c r="I125" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:9">
